--- a/Python/GSRK.xlsx
+++ b/Python/GSRK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="343">
   <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,26 +961,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[1]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[2]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[3]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[4]/div[2]/div[2]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[5]/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,33 +1037,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1315 51615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[1]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[2]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[3]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[4]/div[2]/div[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form[1]/div[5]/div[2]/a</t>
-  </si>
-  <si>
     <t>d等待</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,6 +1110,44 @@
   </si>
   <si>
     <t>dfadsf 想dfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[2]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,9 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1525,61 +1520,61 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1590,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>59</v>
@@ -1599,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>103</v>
@@ -1608,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>147</v>
@@ -1617,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>191</v>
@@ -1626,7 +1621,7 @@
         <v>46</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>241</v>
@@ -1638,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>60</v>
@@ -1647,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>104</v>
@@ -1656,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>148</v>
@@ -1665,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>192</v>
@@ -1674,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>242</v>
@@ -1683,37 +1678,37 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>149</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>193</v>
@@ -1722,7 +1717,7 @@
         <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>243</v>
@@ -1743,19 +1738,22 @@
         <v>106</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>194</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>244</v>
@@ -1776,19 +1774,19 @@
         <v>107</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>195</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>245</v>
@@ -1797,37 +1795,37 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>152</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>196</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>246</v>
@@ -1848,19 +1846,19 @@
         <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>153</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>197</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>247</v>
@@ -1881,19 +1879,19 @@
         <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>154</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>198</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>248</v>
@@ -1902,34 +1900,34 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>199</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>249</v>
@@ -1938,37 +1936,37 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>156</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>200</v>
@@ -1977,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>250</v>
@@ -1989,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>69</v>
@@ -1998,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>113</v>
@@ -2007,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>157</v>
@@ -2016,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>201</v>
@@ -2025,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>251</v>
@@ -2037,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>70</v>
@@ -2046,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>114</v>
@@ -2055,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>158</v>
@@ -2064,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>202</v>
@@ -2073,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>252</v>
@@ -2094,19 +2092,19 @@
         <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>159</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>203</v>
@@ -2115,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>253</v>
@@ -2136,19 +2134,19 @@
         <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>160</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>204</v>
@@ -2157,7 +2155,7 @@
         <v>19</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>254</v>
@@ -2178,13 +2176,13 @@
         <v>117</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>161</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>205</v>
@@ -2193,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>255</v>
@@ -2205,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>74</v>
@@ -2214,19 +2212,19 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>162</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>206</v>
@@ -2235,7 +2233,7 @@
         <v>21</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>256</v>
@@ -2247,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>75</v>
@@ -2256,22 +2254,22 @@
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>163</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>207</v>
@@ -2280,7 +2278,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>257</v>
@@ -2292,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>76</v>
@@ -2301,25 +2299,25 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>164</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>208</v>
@@ -2328,7 +2326,7 @@
         <v>23</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>258</v>
@@ -2340,7 +2338,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>77</v>
@@ -2349,7 +2347,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>121</v>
@@ -2358,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>165</v>
@@ -2367,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>209</v>
@@ -2376,7 +2374,7 @@
         <v>24</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>259</v>
@@ -2388,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>78</v>
@@ -2397,7 +2395,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>122</v>
@@ -2406,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>166</v>
@@ -2415,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>210</v>
@@ -2424,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>260</v>
@@ -2436,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>79</v>
@@ -2445,7 +2443,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>123</v>
@@ -2454,7 +2452,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>167</v>
@@ -2463,7 +2461,7 @@
         <v>17</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>211</v>
@@ -2472,7 +2470,7 @@
         <v>26</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>261</v>
@@ -2484,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>80</v>
@@ -2493,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>124</v>
@@ -2502,7 +2500,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>168</v>
@@ -2511,16 +2509,16 @@
         <v>18</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>212</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>262</v>
@@ -2532,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>81</v>
@@ -2541,7 +2539,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>125</v>
@@ -2550,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>169</v>
@@ -2559,16 +2557,16 @@
         <v>19</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>213</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>263</v>
@@ -2580,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>82</v>
@@ -2589,7 +2587,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>126</v>
@@ -2598,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>170</v>
@@ -2607,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>214</v>
@@ -2616,7 +2614,7 @@
         <v>27</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>264</v>
@@ -2628,7 +2626,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>83</v>
@@ -2637,7 +2635,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>127</v>
@@ -2646,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>171</v>
@@ -2655,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>215</v>
@@ -2664,7 +2662,7 @@
         <v>28</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>265</v>
@@ -2676,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>84</v>
@@ -2685,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>128</v>
@@ -2694,7 +2692,7 @@
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>172</v>
@@ -2703,7 +2701,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>216</v>
@@ -2712,7 +2710,7 @@
         <v>29</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>266</v>
@@ -2724,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>85</v>
@@ -2733,7 +2731,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>129</v>
@@ -2742,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>173</v>
@@ -2751,7 +2749,7 @@
         <v>23</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>217</v>
@@ -2760,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>267</v>
@@ -2772,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>86</v>
@@ -2781,7 +2779,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>130</v>
@@ -2790,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>174</v>
@@ -2799,7 +2797,7 @@
         <v>24</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>218</v>
@@ -2808,7 +2806,7 @@
         <v>31</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>268</v>
@@ -2820,7 +2818,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>87</v>
@@ -2829,7 +2827,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>131</v>
@@ -2838,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>175</v>
@@ -2847,7 +2845,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>219</v>
@@ -2856,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>269</v>
@@ -2868,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>88</v>
@@ -2877,7 +2875,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>132</v>
@@ -2886,7 +2884,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>176</v>
@@ -2895,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>220</v>
@@ -2904,7 +2902,7 @@
         <v>33</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>270</v>
@@ -2916,7 +2914,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>89</v>
@@ -2925,7 +2923,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>133</v>
@@ -2934,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>177</v>
@@ -2943,7 +2941,7 @@
         <v>27</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>221</v>
@@ -2952,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>271</v>
@@ -2964,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>90</v>
@@ -2973,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>134</v>
@@ -2982,7 +2980,7 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>178</v>
@@ -2991,7 +2989,7 @@
         <v>28</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>222</v>
@@ -3000,7 +2998,7 @@
         <v>35</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>272</v>
@@ -3012,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>91</v>
@@ -3021,7 +3019,7 @@
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>135</v>
@@ -3030,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>179</v>
@@ -3039,7 +3037,7 @@
         <v>29</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>223</v>
@@ -3048,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>273</v>
@@ -3060,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>92</v>
@@ -3069,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>136</v>
@@ -3078,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>180</v>
@@ -3087,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>224</v>
@@ -3096,7 +3094,7 @@
         <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>274</v>
@@ -3109,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>93</v>
@@ -3118,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>137</v>
@@ -3127,7 +3125,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>181</v>
@@ -3136,7 +3134,7 @@
         <v>31</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>225</v>
@@ -3145,7 +3143,7 @@
         <v>38</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>275</v>
@@ -3157,7 +3155,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>94</v>
@@ -3166,7 +3164,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>138</v>
@@ -3175,7 +3173,7 @@
         <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>182</v>
@@ -3184,7 +3182,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>226</v>
@@ -3193,7 +3191,7 @@
         <v>39</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>276</v>
@@ -3205,7 +3203,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>95</v>
@@ -3214,7 +3212,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>139</v>
@@ -3223,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>183</v>
@@ -3232,7 +3230,7 @@
         <v>33</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>227</v>
@@ -3241,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>277</v>
@@ -3253,7 +3251,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>96</v>
@@ -3262,7 +3260,7 @@
         <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>140</v>
@@ -3271,7 +3269,7 @@
         <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>184</v>
@@ -3280,7 +3278,7 @@
         <v>34</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>228</v>
@@ -3289,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>278</v>
@@ -3301,7 +3299,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>97</v>
@@ -3310,7 +3308,7 @@
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>141</v>
@@ -3319,7 +3317,7 @@
         <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>185</v>
@@ -3328,7 +3326,7 @@
         <v>35</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>229</v>
@@ -3337,7 +3335,7 @@
         <v>41</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>279</v>
@@ -3349,7 +3347,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>98</v>
@@ -3358,7 +3356,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>142</v>
@@ -3367,7 +3365,7 @@
         <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>186</v>
@@ -3376,7 +3374,7 @@
         <v>36</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>230</v>
@@ -3385,7 +3383,7 @@
         <v>42</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>280</v>
@@ -3397,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>99</v>
@@ -3406,7 +3404,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>143</v>
@@ -3415,7 +3413,7 @@
         <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>187</v>
@@ -3424,13 +3422,13 @@
         <v>37</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>231</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>281</v>
@@ -3442,7 +3440,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>100</v>
@@ -3451,7 +3449,7 @@
         <v>45</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>144</v>
@@ -3460,7 +3458,7 @@
         <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>188</v>
@@ -3469,13 +3467,13 @@
         <v>38</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>232</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>282</v>
@@ -3487,7 +3485,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>101</v>
@@ -3496,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>145</v>
@@ -3505,7 +3503,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>189</v>
@@ -3514,16 +3512,16 @@
         <v>39</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>233</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>283</v>
@@ -3535,7 +3533,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>102</v>
@@ -3544,7 +3542,7 @@
         <v>41</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>146</v>
@@ -3553,7 +3551,7 @@
         <v>45</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>190</v>
@@ -3562,7 +3560,7 @@
         <v>45</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>234</v>
@@ -3571,7 +3569,7 @@
         <v>49</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>284</v>
@@ -3583,27 +3581,27 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>235</v>
@@ -3612,7 +3610,7 @@
         <v>50</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>285</v>
@@ -3621,24 +3619,24 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>236</v>
@@ -3647,7 +3645,7 @@
         <v>51</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>286</v>
@@ -3660,27 +3658,27 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>237</v>
@@ -3689,7 +3687,7 @@
         <v>52</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>287</v>
@@ -3702,24 +3700,24 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>238</v>
@@ -3728,7 +3726,7 @@
         <v>53</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>288</v>
@@ -3740,27 +3738,27 @@
         <v>291</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>291</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>239</v>
@@ -3769,7 +3767,7 @@
         <v>54</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>289</v>
@@ -3783,14 +3781,14 @@
         <v>44</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>240</v>
@@ -3799,7 +3797,7 @@
         <v>55</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>290</v>
@@ -3809,23 +3807,23 @@
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H52" s="3"/>
       <c r="I52" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="1" t="s">
         <v>291</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -3835,7 +3833,7 @@
         <v>57</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -3843,6 +3841,9 @@
       <c r="L54" s="3"/>
       <c r="Q54" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>292</v>

--- a/Python/GSRK.xlsx
+++ b/Python/GSRK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="371">
   <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,118 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好！@#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,10 +845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好dfadf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,26 +865,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅可以使用中英文字母,空白, 字数范围2-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你 的发疯ide21 dad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅可以使用中英文字母, 字数范围2-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好dfadf12312</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅可以使用10—25个数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,14 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1315 51615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,14 +953,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    dd想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,6 +1000,237 @@
   </si>
   <si>
     <t xml:space="preserve">1234567890  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>@@@@@</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>$$$$$</t>
+  </si>
+  <si>
+    <t>%%%%%%</t>
+  </si>
+  <si>
+    <t>^^^^^^</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>((((((</t>
+  </si>
+  <si>
+    <t>))))))</t>
+  </si>
+  <si>
+    <t>++++++</t>
+  </si>
+  <si>
+    <t>``````</t>
+  </si>
+  <si>
+    <t>======</t>
+  </si>
+  <si>
+    <t>{{{{{{{</t>
+  </si>
+  <si>
+    <t>}}}}}}</t>
+  </si>
+  <si>
+    <t>|||||||</t>
+  </si>
+  <si>
+    <t>:::::::</t>
+  </si>
+  <si>
+    <t>""""""</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>[[[[[[</t>
+  </si>
+  <si>
+    <t>]]]]]]</t>
+  </si>
+  <si>
+    <t>\\\\\\</t>
+  </si>
+  <si>
+    <t>;;;;;;</t>
+  </si>
+  <si>
+    <t>''''''</t>
+  </si>
+  <si>
+    <t>,,,,,,,</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>//////</t>
+  </si>
+  <si>
+    <t>_________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@@@@@@@@@@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##########</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$$$$$$$$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%%%%%%%%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^^^^^^^^^^^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**************</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((((((((((((</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>))))))))))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>++++++++++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>````````````</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{{{{{{{{{{{{{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}}}}}}}}}}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||||||||||||||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>::::::::::::::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"""""""""""""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????????????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[[[[[[[[[[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]]]]]]]]]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\\\\\\\\\\\\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;;;;;;;;;;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'''''''''''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.....................</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>////////////</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>___________________________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,空白, 字数范围2-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母, 字数范围2-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用10—25个数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1251,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1188,10 +1279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1202,9 +1294,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1484,9 +1579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R44" sqref="R44:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1520,61 +1615,61 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1585,46 +1680,46 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="X2" s="3"/>
     </row>
@@ -1633,94 +1728,94 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="X4" s="3"/>
     </row>
@@ -1729,34 +1824,34 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="X5" s="3"/>
     </row>
@@ -1765,70 +1860,70 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="X7" s="3"/>
     </row>
@@ -1837,31 +1932,31 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="X8" s="3"/>
     </row>
@@ -1870,115 +1965,115 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="X11" s="3"/>
     </row>
@@ -1987,46 +2082,46 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="X12" s="3"/>
     </row>
@@ -2035,46 +2130,46 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="X13" s="3"/>
     </row>
@@ -2083,40 +2178,40 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="X14" s="3"/>
     </row>
@@ -2125,40 +2220,40 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="X15" s="3"/>
     </row>
@@ -2167,34 +2262,34 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="X16" s="3"/>
     </row>
@@ -2203,1574 +2298,1574 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>27</v>
+        <v>185</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
+      <c r="A32" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>35</v>
+        <v>358</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="X33" s="3"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>29</v>
+        <v>150</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>36</v>
+        <v>194</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="U35" s="2"/>
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>38</v>
+        <v>196</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>39</v>
+        <v>197</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="X37" s="3"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>45</v>
+        <v>198</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="X38" s="3"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="X39" s="3"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="X40" s="3"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
+      <c r="A41" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>42</v>
+        <v>201</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="X41" s="3"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
+      <c r="A42" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
+      <c r="A43" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="X43" s="3"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
+      <c r="A44" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>39</v>
+        <v>116</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>160</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="X44" s="3"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>45</v>
+        <v>161</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="X45" s="3"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="1" t="s">
-        <v>40</v>
+      <c r="I46" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L46" s="3"/>
-      <c r="M46" s="1" t="s">
-        <v>40</v>
+      <c r="M46" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="X46" s="3"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="1" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="U47"/>
       <c r="X47" s="3"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="1" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="U48"/>
       <c r="X48" s="3"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="X49" s="3"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="U50"/>
       <c r="X50" s="3"/>
@@ -3778,75 +3873,75 @@
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H51" s="3"/>
       <c r="I51" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="X51" s="3"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H52" s="3"/>
       <c r="I52" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H53" s="3"/>
       <c r="L53" s="3"/>
       <c r="Q53" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H54" s="3"/>
       <c r="L54" s="3"/>
       <c r="Q54" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">

--- a/Python/GSRK.xlsx
+++ b/Python/GSRK.xlsx
@@ -965,36 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[1]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[2]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[3]/div[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[1]/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div/div/form[1]/div[5]/div[2]/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1234567890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1232,6 +1202,36 @@
   <si>
     <t>*仅可以使用10—25个数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[1]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[3]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[3]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[4]/div[2]/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[4]/div[2]/div[3]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form[1]/div[5]/div[2]/a</t>
   </si>
 </sst>
 </file>
@@ -1579,97 +1579,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R44" sqref="R44:R54"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="59.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1680,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
@@ -1689,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>74</v>
@@ -1698,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>118</v>
@@ -1707,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>162</v>
@@ -1716,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>212</v>
@@ -1728,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>31</v>
@@ -1737,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>75</v>
@@ -1746,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>119</v>
@@ -1755,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>163</v>
@@ -1764,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>213</v>
@@ -1776,7 +1752,7 @@
         <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -1785,7 +1761,7 @@
         <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>76</v>
@@ -1794,7 +1770,7 @@
         <v>267</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>120</v>
@@ -1803,7 +1779,7 @@
         <v>267</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>164</v>
@@ -1812,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>214</v>
@@ -1848,7 +1824,7 @@
         <v>271</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>215</v>
@@ -1905,7 +1881,7 @@
         <v>268</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>123</v>
@@ -1914,7 +1890,7 @@
         <v>288</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>167</v>
@@ -2022,7 +1998,7 @@
         <v>274</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>220</v>
@@ -2034,7 +2010,7 @@
         <v>266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2043,7 +2019,7 @@
         <v>266</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>83</v>
@@ -2052,7 +2028,7 @@
         <v>266</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>127</v>
@@ -2061,16 +2037,16 @@
         <v>266</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>171</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>221</v>
@@ -2082,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2091,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>84</v>
@@ -2100,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>128</v>
@@ -2109,16 +2085,16 @@
         <v>9</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>172</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>222</v>
@@ -2130,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -2139,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>85</v>
@@ -2148,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>129</v>
@@ -2157,16 +2133,16 @@
         <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>173</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>223</v>
@@ -2187,28 +2163,28 @@
         <v>86</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>130</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>174</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>224</v>
@@ -2229,28 +2205,28 @@
         <v>87</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>175</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>225</v>
@@ -2283,10 +2259,10 @@
         <v>176</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>226</v>
@@ -2298,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>45</v>
@@ -2307,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>89</v>
@@ -2325,10 +2301,10 @@
         <v>177</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>227</v>
@@ -2337,19 +2313,19 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>90</v>
@@ -2364,16 +2340,16 @@
         <v>293</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>178</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>228</v>
@@ -2382,19 +2358,19 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>91</v>
@@ -2403,7 +2379,7 @@
         <v>269</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>135</v>
@@ -2412,16 +2388,16 @@
         <v>269</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>179</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>229</v>
@@ -2430,46 +2406,46 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>136</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>180</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>230</v>
@@ -2478,46 +2454,46 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>137</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>181</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>231</v>
@@ -2526,46 +2502,46 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>138</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>182</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>232</v>
@@ -2574,46 +2550,46 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>139</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>183</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>233</v>
@@ -2622,46 +2598,46 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>140</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>234</v>
@@ -2670,46 +2646,46 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>141</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>235</v>
@@ -2718,46 +2694,46 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>142</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>186</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>236</v>
@@ -2766,46 +2742,46 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>99</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>143</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>187</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>237</v>
@@ -2814,46 +2790,46 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>144</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>188</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>238</v>
@@ -2862,46 +2838,46 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>101</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>145</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>189</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>239</v>
@@ -2910,46 +2886,46 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>146</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>190</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>240</v>
@@ -2958,46 +2934,46 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>147</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>191</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>241</v>
@@ -3006,46 +2982,46 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>104</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>148</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>242</v>
@@ -3054,46 +3030,46 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>149</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>193</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>243</v>
@@ -3102,46 +3078,46 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>150</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>194</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>244</v>
@@ -3150,46 +3126,46 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>195</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>245</v>
@@ -3199,46 +3175,46 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>152</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>196</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>246</v>
@@ -3247,46 +3223,46 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>109</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>153</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>197</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>247</v>
@@ -3295,46 +3271,46 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>154</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>198</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>248</v>
@@ -3343,46 +3319,46 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>199</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>249</v>
@@ -3391,46 +3367,46 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>112</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>156</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>200</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>250</v>
@@ -3439,46 +3415,46 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>157</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>201</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>251</v>
@@ -3487,43 +3463,43 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>158</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>202</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>252</v>
@@ -3532,43 +3508,43 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>115</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>159</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>203</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>253</v>
@@ -3577,37 +3553,37 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>160</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>204</v>
@@ -3616,7 +3592,7 @@
         <v>277</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>254</v>
@@ -3625,37 +3601,37 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>161</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>205</v>
@@ -3664,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>255</v>
@@ -3673,30 +3649,30 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>206</v>
@@ -3705,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>256</v>
@@ -3721,17 +3697,17 @@
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>207</v>
@@ -3740,7 +3716,7 @@
         <v>22</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>257</v>
@@ -3753,27 +3729,27 @@
         <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>208</v>
@@ -3782,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>258</v>
@@ -3795,13 +3771,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1" t="s">
@@ -3812,7 +3788,7 @@
         <v>270</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>209</v>
@@ -3821,7 +3797,7 @@
         <v>24</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>259</v>
@@ -3833,27 +3809,27 @@
         <v>262</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>210</v>
@@ -3862,7 +3838,7 @@
         <v>25</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>260</v>
@@ -3876,14 +3852,14 @@
         <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>211</v>
@@ -3892,7 +3868,7 @@
         <v>26</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>261</v>
@@ -3905,20 +3881,20 @@
         <v>285</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="1" t="s">
         <v>262</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -3928,7 +3904,7 @@
         <v>28</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -3938,7 +3914,7 @@
         <v>29</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>263</v>
